--- a/data/topic_modeling/topic_modeling_analysis.xlsx
+++ b/data/topic_modeling/topic_modeling_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satishwarkedas/Documents/GitHub/project-deliverable-2-bazinga/data/topic_modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090CD49A-EA3C-0442-864D-81A9F5DD354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566144E-55B7-BF46-B0DA-96C0E6268C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{9DC82D12-F8B3-9B4C-B702-A232154F0B4E}"/>
+    <workbookView xWindow="15420" yWindow="840" windowWidth="18780" windowHeight="21400" xr2:uid="{9DC82D12-F8B3-9B4C-B702-A232154F0B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -745,12 +745,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1083,266 +1082,266 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.83203125" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1355,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8C6E5A-199C-4E4D-9A98-AE1B6B22B4E3}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC1" activeCellId="9" sqref="B1:B1048576 E1:E1048576 H1:H1048576 K1:K1048576 N1:N1048576 Q1:Q1048576 T1:T1048576 W1:W1048576 Z1:Z1048576 AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
@@ -2997,546 +2996,546 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
+      <c r="A1">
         <v>0.03</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <v>1.2E-2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1">
         <v>0.01</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1">
         <v>0.01</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>0.01</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>0.01</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1">
         <v>0.01</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>0.04</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2.4E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>2.4E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>2.4E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>2.3E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>2.3E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>2.3E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>0.01</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1.2E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0.01</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>0.01</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>0.02</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.02</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1.2E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>0.01</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>1.2E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>0.01</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>0.01</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>0.01</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>0.01</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1.4E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1.4E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1.2E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>0.01</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>0.04</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>2.4E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0.02</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0.02</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>0.01</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>0.04</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>3.1E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>3.1E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0.03</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>0.01</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1.2E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>1.2E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>1.2E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>0.01</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>0.01</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>0.01</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>0.04</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>2.7E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>1.6E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>0.01</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>0.01</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>0.01</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1.4E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>0.01</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>0.03</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>0.02</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>0.01</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>0.01</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>1.2E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>0.01</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>0.01</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>0.01</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>0.01</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1.2E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>0.04</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1.2E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0.01</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
